--- a/R12/ZX tables about tax.xlsx
+++ b/R12/ZX tables about tax.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jingj\Documents\01 Hakim\00 GitHub\30EBS\R12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 github\30EBS\R12\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2BF845-C7A8-4329-88E4-BDD0D7A160D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1305" windowWidth="17145" windowHeight="8535"/>
+    <workbookView minimized="1" xWindow="480" yWindow="1905" windowWidth="17145" windowHeight="8535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Select dba_objects" sheetId="1" r:id="rId1"/>
@@ -538,9 +539,6 @@
     <t>ZX_COMPOUND_ERRORS_T#</t>
   </si>
   <si>
-    <t>ZX_CONDITIONS</t>
-  </si>
-  <si>
     <t>2018-04-11:21:39:10</t>
   </si>
   <si>
@@ -1269,16 +1267,20 @@
    AND xx.object_name LIKE 'ZX%'_x000D_
    --AND xx.OBJECT_NAME = 'XXPA_COST_EXPORT_GCPM_PKG2'</t>
   </si>
+  <si>
+    <t>ZX_CONDITIONS</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd\-mmm\-yy\ hh:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy\ hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -1293,6 +1295,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1317,8 +1325,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1413,6 +1421,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1448,6 +1473,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1623,12 +1665,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H205" sqref="H205"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7633,7 +7675,7 @@
         <v>146</v>
       </c>
       <c r="C114" t="s">
-        <v>172</v>
+        <v>413</v>
       </c>
       <c r="E114">
         <v>331418</v>
@@ -7651,7 +7693,7 @@
         <v>43203.026400462964</v>
       </c>
       <c r="J114" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K114" t="s">
         <v>29</v>
@@ -7683,7 +7725,7 @@
         <v>146</v>
       </c>
       <c r="C115" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E115">
         <v>385271</v>
@@ -7736,7 +7778,7 @@
         <v>146</v>
       </c>
       <c r="C116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E116">
         <v>331412</v>
@@ -7754,7 +7796,7 @@
         <v>43203.026400462964</v>
       </c>
       <c r="J116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K116" t="s">
         <v>29</v>
@@ -7786,7 +7828,7 @@
         <v>146</v>
       </c>
       <c r="C117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E117">
         <v>385964</v>
@@ -7801,7 +7843,7 @@
         <v>43202.558819444443</v>
       </c>
       <c r="J117" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K117" t="s">
         <v>29</v>
@@ -7839,7 +7881,7 @@
         <v>146</v>
       </c>
       <c r="C118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E118">
         <v>331427</v>
@@ -7857,7 +7899,7 @@
         <v>43203.026400462964</v>
       </c>
       <c r="J118" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K118" t="s">
         <v>29</v>
@@ -7889,7 +7931,7 @@
         <v>146</v>
       </c>
       <c r="C119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E119">
         <v>385303</v>
@@ -7942,7 +7984,7 @@
         <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E120">
         <v>331436</v>
@@ -7960,7 +8002,7 @@
         <v>43203.026400462964</v>
       </c>
       <c r="J120" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K120" t="s">
         <v>29</v>
@@ -7992,7 +8034,7 @@
         <v>146</v>
       </c>
       <c r="C121" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E121">
         <v>385440</v>
@@ -8007,7 +8049,7 @@
         <v>43202.55872685185</v>
       </c>
       <c r="J121" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K121" t="s">
         <v>29</v>
@@ -8045,7 +8087,7 @@
         <v>146</v>
       </c>
       <c r="C122" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E122">
         <v>331429</v>
@@ -8063,7 +8105,7 @@
         <v>43203.026400462964</v>
       </c>
       <c r="J122" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K122" t="s">
         <v>29</v>
@@ -8095,7 +8137,7 @@
         <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E123">
         <v>384960</v>
@@ -8148,7 +8190,7 @@
         <v>146</v>
       </c>
       <c r="C124" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E124">
         <v>331398</v>
@@ -8198,7 +8240,7 @@
         <v>146</v>
       </c>
       <c r="C125" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E125">
         <v>331426</v>
@@ -8248,7 +8290,7 @@
         <v>146</v>
       </c>
       <c r="C126" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E126">
         <v>411668</v>
@@ -8301,7 +8343,7 @@
         <v>146</v>
       </c>
       <c r="C127" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E127">
         <v>411661</v>
@@ -8348,7 +8390,7 @@
         <v>146</v>
       </c>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E128">
         <v>331474</v>
@@ -8366,7 +8408,7 @@
         <v>43203.026400462964</v>
       </c>
       <c r="J128" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K128" t="s">
         <v>29</v>
@@ -8398,7 +8440,7 @@
         <v>146</v>
       </c>
       <c r="C129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E129">
         <v>381915</v>
@@ -8413,7 +8455,7 @@
         <v>43202.559178240743</v>
       </c>
       <c r="J129" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K129" t="s">
         <v>29</v>
@@ -8451,7 +8493,7 @@
         <v>146</v>
       </c>
       <c r="C130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E130">
         <v>331456</v>
@@ -8469,7 +8511,7 @@
         <v>43203.026400462964</v>
       </c>
       <c r="J130" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K130" t="s">
         <v>29</v>
@@ -8501,7 +8543,7 @@
         <v>146</v>
       </c>
       <c r="C131" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E131">
         <v>384820</v>
@@ -8516,7 +8558,7 @@
         <v>43202.559178240743</v>
       </c>
       <c r="J131" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K131" t="s">
         <v>29</v>
@@ -8554,7 +8596,7 @@
         <v>146</v>
       </c>
       <c r="C132" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E132">
         <v>331424</v>
@@ -8572,7 +8614,7 @@
         <v>43203.026400462964</v>
       </c>
       <c r="J132" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K132" t="s">
         <v>29</v>
@@ -8604,7 +8646,7 @@
         <v>146</v>
       </c>
       <c r="C133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E133">
         <v>385993</v>
@@ -8619,7 +8661,7 @@
         <v>43202.559212962966</v>
       </c>
       <c r="J133" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K133" t="s">
         <v>29</v>
@@ -8657,7 +8699,7 @@
         <v>146</v>
       </c>
       <c r="C134" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E134">
         <v>331452</v>
@@ -8675,7 +8717,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J134" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K134" t="s">
         <v>29</v>
@@ -8707,7 +8749,7 @@
         <v>146</v>
       </c>
       <c r="C135" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E135">
         <v>385234</v>
@@ -8722,7 +8764,7 @@
         <v>43202.559166666666</v>
       </c>
       <c r="J135" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K135" t="s">
         <v>29</v>
@@ -8760,7 +8802,7 @@
         <v>146</v>
       </c>
       <c r="C136" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E136">
         <v>331421</v>
@@ -8778,7 +8820,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J136" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K136" t="s">
         <v>29</v>
@@ -8810,7 +8852,7 @@
         <v>146</v>
       </c>
       <c r="C137" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E137">
         <v>381766</v>
@@ -8825,7 +8867,7 @@
         <v>43202.559178240743</v>
       </c>
       <c r="J137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K137" t="s">
         <v>29</v>
@@ -8863,7 +8905,7 @@
         <v>146</v>
       </c>
       <c r="C138" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E138">
         <v>331453</v>
@@ -8878,7 +8920,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J138" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K138" t="s">
         <v>29</v>
@@ -8910,7 +8952,7 @@
         <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E139">
         <v>331465</v>
@@ -8925,7 +8967,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J139" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K139" t="s">
         <v>29</v>
@@ -8957,7 +8999,7 @@
         <v>146</v>
       </c>
       <c r="C140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E140">
         <v>331438</v>
@@ -8972,7 +9014,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J140" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K140" t="s">
         <v>29</v>
@@ -9004,7 +9046,7 @@
         <v>146</v>
       </c>
       <c r="C141" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E141">
         <v>331458</v>
@@ -9022,7 +9064,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J141" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K141" t="s">
         <v>29</v>
@@ -9054,7 +9096,7 @@
         <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E142">
         <v>385825</v>
@@ -9107,7 +9149,7 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E143">
         <v>331472</v>
@@ -9125,7 +9167,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J143" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K143" t="s">
         <v>29</v>
@@ -9157,7 +9199,7 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E144">
         <v>385997</v>
@@ -9172,7 +9214,7 @@
         <v>43202.559189814812</v>
       </c>
       <c r="J144" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K144" t="s">
         <v>29</v>
@@ -9210,7 +9252,7 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E145">
         <v>331489</v>
@@ -9228,7 +9270,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J145" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K145" t="s">
         <v>29</v>
@@ -9260,7 +9302,7 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E146">
         <v>385274</v>
@@ -9275,7 +9317,7 @@
         <v>43202.559189814812</v>
       </c>
       <c r="J146" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K146" t="s">
         <v>29</v>
@@ -9313,7 +9355,7 @@
         <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E147">
         <v>331473</v>
@@ -9331,7 +9373,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J147" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K147" t="s">
         <v>29</v>
@@ -9363,7 +9405,7 @@
         <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E148">
         <v>385966</v>
@@ -9378,7 +9420,7 @@
         <v>43202.559189814812</v>
       </c>
       <c r="J148" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K148" t="s">
         <v>29</v>
@@ -9416,7 +9458,7 @@
         <v>146</v>
       </c>
       <c r="C149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E149">
         <v>331480</v>
@@ -9434,7 +9476,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J149" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K149" t="s">
         <v>29</v>
@@ -9466,7 +9508,7 @@
         <v>146</v>
       </c>
       <c r="C150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E150">
         <v>385311</v>
@@ -9481,7 +9523,7 @@
         <v>43202.559236111112</v>
       </c>
       <c r="J150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K150" t="s">
         <v>29</v>
@@ -9519,7 +9561,7 @@
         <v>146</v>
       </c>
       <c r="C151" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E151">
         <v>331495</v>
@@ -9569,7 +9611,7 @@
         <v>146</v>
       </c>
       <c r="C152" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E152">
         <v>385444</v>
@@ -9622,7 +9664,7 @@
         <v>146</v>
       </c>
       <c r="C153" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E153">
         <v>331493</v>
@@ -9640,7 +9682,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J153" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K153" t="s">
         <v>29</v>
@@ -9672,7 +9714,7 @@
         <v>146</v>
       </c>
       <c r="C154" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E154">
         <v>384965</v>
@@ -9687,7 +9729,7 @@
         <v>43202.559189814812</v>
       </c>
       <c r="J154" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K154" t="s">
         <v>29</v>
@@ -9725,7 +9767,7 @@
         <v>146</v>
       </c>
       <c r="C155" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E155">
         <v>331483</v>
@@ -9743,7 +9785,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J155" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K155" t="s">
         <v>29</v>
@@ -9775,7 +9817,7 @@
         <v>146</v>
       </c>
       <c r="C156" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E156">
         <v>381924</v>
@@ -9790,7 +9832,7 @@
         <v>43202.559201388889</v>
       </c>
       <c r="J156" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K156" t="s">
         <v>29</v>
@@ -9828,7 +9870,7 @@
         <v>146</v>
       </c>
       <c r="C157" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E157">
         <v>331503</v>
@@ -9846,7 +9888,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K157" t="s">
         <v>29</v>
@@ -9878,7 +9920,7 @@
         <v>146</v>
       </c>
       <c r="C158" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E158">
         <v>384827</v>
@@ -9893,7 +9935,7 @@
         <v>43202.558668981481</v>
       </c>
       <c r="J158" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K158" t="s">
         <v>29</v>
@@ -9931,7 +9973,7 @@
         <v>146</v>
       </c>
       <c r="C159" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E159">
         <v>331517</v>
@@ -9949,7 +9991,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J159" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K159" t="s">
         <v>29</v>
@@ -9981,7 +10023,7 @@
         <v>146</v>
       </c>
       <c r="C160" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E160">
         <v>385995</v>
@@ -10034,7 +10076,7 @@
         <v>146</v>
       </c>
       <c r="C161" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E161">
         <v>331511</v>
@@ -10052,7 +10094,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J161" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K161" t="s">
         <v>29</v>
@@ -10084,7 +10126,7 @@
         <v>146</v>
       </c>
       <c r="C162" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E162">
         <v>385243</v>
@@ -10137,7 +10179,7 @@
         <v>146</v>
       </c>
       <c r="C163" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E163">
         <v>331521</v>
@@ -10155,7 +10197,7 @@
         <v>43203.026412037034</v>
       </c>
       <c r="J163" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K163" t="s">
         <v>29</v>
@@ -10187,7 +10229,7 @@
         <v>146</v>
       </c>
       <c r="C164" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E164">
         <v>381780</v>
@@ -10202,7 +10244,7 @@
         <v>43202.559039351851</v>
       </c>
       <c r="J164" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K164" t="s">
         <v>29</v>
@@ -10240,7 +10282,7 @@
         <v>146</v>
       </c>
       <c r="C165" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E165">
         <v>331534</v>
@@ -10258,7 +10300,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J165" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K165" t="s">
         <v>29</v>
@@ -10290,7 +10332,7 @@
         <v>146</v>
       </c>
       <c r="C166" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E166">
         <v>385829</v>
@@ -10343,7 +10385,7 @@
         <v>146</v>
       </c>
       <c r="C167" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E167">
         <v>331520</v>
@@ -10361,7 +10403,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K167" t="s">
         <v>29</v>
@@ -10393,7 +10435,7 @@
         <v>146</v>
       </c>
       <c r="C168" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E168">
         <v>386000</v>
@@ -10408,7 +10450,7 @@
         <v>43202.559050925927</v>
       </c>
       <c r="J168" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K168" t="s">
         <v>29</v>
@@ -10446,7 +10488,7 @@
         <v>146</v>
       </c>
       <c r="C169" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E169">
         <v>331508</v>
@@ -10464,7 +10506,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J169" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K169" t="s">
         <v>29</v>
@@ -10496,7 +10538,7 @@
         <v>146</v>
       </c>
       <c r="C170" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E170">
         <v>385281</v>
@@ -10511,7 +10553,7 @@
         <v>43202.559039351851</v>
       </c>
       <c r="J170" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K170" t="s">
         <v>29</v>
@@ -10549,7 +10591,7 @@
         <v>146</v>
       </c>
       <c r="C171" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E171">
         <v>331529</v>
@@ -10567,7 +10609,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K171" t="s">
         <v>29</v>
@@ -10599,7 +10641,7 @@
         <v>146</v>
       </c>
       <c r="C172" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E172">
         <v>385970</v>
@@ -10614,7 +10656,7 @@
         <v>43202.558819444443</v>
       </c>
       <c r="J172" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K172" t="s">
         <v>29</v>
@@ -10652,7 +10694,7 @@
         <v>146</v>
       </c>
       <c r="C173" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E173">
         <v>331527</v>
@@ -10670,7 +10712,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J173" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K173" t="s">
         <v>29</v>
@@ -10702,7 +10744,7 @@
         <v>146</v>
       </c>
       <c r="C174" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E174">
         <v>385316</v>
@@ -10717,7 +10759,7 @@
         <v>43202.559201388889</v>
       </c>
       <c r="J174" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K174" t="s">
         <v>29</v>
@@ -10755,7 +10797,7 @@
         <v>146</v>
       </c>
       <c r="C175" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E175">
         <v>331548</v>
@@ -10773,7 +10815,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J175" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K175" t="s">
         <v>29</v>
@@ -10805,7 +10847,7 @@
         <v>146</v>
       </c>
       <c r="C176" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E176">
         <v>385448</v>
@@ -10820,7 +10862,7 @@
         <v>43202.55872685185</v>
       </c>
       <c r="J176" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K176" t="s">
         <v>29</v>
@@ -10858,7 +10900,7 @@
         <v>146</v>
       </c>
       <c r="C177" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E177">
         <v>331525</v>
@@ -10876,7 +10918,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J177" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K177" t="s">
         <v>29</v>
@@ -10908,7 +10950,7 @@
         <v>146</v>
       </c>
       <c r="C178" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E178">
         <v>384971</v>
@@ -10923,7 +10965,7 @@
         <v>43202.559201388889</v>
       </c>
       <c r="J178" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K178" t="s">
         <v>29</v>
@@ -10961,7 +11003,7 @@
         <v>146</v>
       </c>
       <c r="C179" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E179">
         <v>331555</v>
@@ -10979,7 +11021,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J179" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K179" t="s">
         <v>29</v>
@@ -11011,7 +11053,7 @@
         <v>146</v>
       </c>
       <c r="C180" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E180">
         <v>381935</v>
@@ -11026,7 +11068,7 @@
         <v>43202.559201388889</v>
       </c>
       <c r="J180" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K180" t="s">
         <v>29</v>
@@ -11064,7 +11106,7 @@
         <v>146</v>
       </c>
       <c r="C181" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E181">
         <v>331536</v>
@@ -11082,7 +11124,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J181" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K181" t="s">
         <v>29</v>
@@ -11114,7 +11156,7 @@
         <v>146</v>
       </c>
       <c r="C182" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E182">
         <v>384838</v>
@@ -11129,7 +11171,7 @@
         <v>43202.558668981481</v>
       </c>
       <c r="J182" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K182" t="s">
         <v>29</v>
@@ -11167,7 +11209,7 @@
         <v>146</v>
       </c>
       <c r="C183" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E183">
         <v>331564</v>
@@ -11185,7 +11227,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J183" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K183" t="s">
         <v>29</v>
@@ -11217,7 +11259,7 @@
         <v>146</v>
       </c>
       <c r="C184" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E184">
         <v>385998</v>
@@ -11232,7 +11274,7 @@
         <v>43202.559212962966</v>
       </c>
       <c r="J184" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K184" t="s">
         <v>29</v>
@@ -11270,7 +11312,7 @@
         <v>146</v>
       </c>
       <c r="C185" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E185">
         <v>331573</v>
@@ -11288,7 +11330,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J185" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K185" t="s">
         <v>29</v>
@@ -11320,7 +11362,7 @@
         <v>146</v>
       </c>
       <c r="C186" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E186">
         <v>385251</v>
@@ -11373,7 +11415,7 @@
         <v>146</v>
       </c>
       <c r="C187" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E187">
         <v>331590</v>
@@ -11388,7 +11430,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J187" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K187" t="s">
         <v>29</v>
@@ -11420,7 +11462,7 @@
         <v>146</v>
       </c>
       <c r="C188" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E188">
         <v>331601</v>
@@ -11435,7 +11477,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J188" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K188" t="s">
         <v>29</v>
@@ -11467,7 +11509,7 @@
         <v>146</v>
       </c>
       <c r="C189" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E189">
         <v>331616</v>
@@ -11485,7 +11527,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J189" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K189" t="s">
         <v>29</v>
@@ -11517,7 +11559,7 @@
         <v>146</v>
       </c>
       <c r="C190" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E190">
         <v>381793</v>
@@ -11570,7 +11612,7 @@
         <v>146</v>
       </c>
       <c r="C191" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E191">
         <v>331617</v>
@@ -11585,7 +11627,7 @@
         <v>43203.026423611111</v>
       </c>
       <c r="J191" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K191" t="s">
         <v>29</v>
@@ -11617,7 +11659,7 @@
         <v>146</v>
       </c>
       <c r="C192" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E192">
         <v>331622</v>
@@ -11635,7 +11677,7 @@
         <v>43203.026435185187</v>
       </c>
       <c r="J192" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K192" t="s">
         <v>29</v>
@@ -11667,7 +11709,7 @@
         <v>146</v>
       </c>
       <c r="C193" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E193">
         <v>385832</v>
@@ -11720,7 +11762,7 @@
         <v>146</v>
       </c>
       <c r="C194" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E194">
         <v>331640</v>
@@ -11738,7 +11780,7 @@
         <v>43203.026435185187</v>
       </c>
       <c r="J194" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K194" t="s">
         <v>29</v>
@@ -11770,7 +11812,7 @@
         <v>146</v>
       </c>
       <c r="C195" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E195">
         <v>386002</v>
@@ -11785,7 +11827,7 @@
         <v>43202.699155092596</v>
       </c>
       <c r="J195" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K195" t="s">
         <v>29</v>
@@ -11823,7 +11865,7 @@
         <v>146</v>
       </c>
       <c r="C196" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E196">
         <v>331689</v>
@@ -11841,7 +11883,7 @@
         <v>43203.026435185187</v>
       </c>
       <c r="J196" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K196" t="s">
         <v>29</v>
@@ -11873,7 +11915,7 @@
         <v>146</v>
       </c>
       <c r="C197" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E197">
         <v>385310</v>
@@ -11926,7 +11968,7 @@
         <v>146</v>
       </c>
       <c r="C198" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E198">
         <v>331665</v>
@@ -11944,7 +11986,7 @@
         <v>43203.026435185187</v>
       </c>
       <c r="J198" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K198" t="s">
         <v>29</v>
@@ -11976,7 +12018,7 @@
         <v>146</v>
       </c>
       <c r="C199" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E199">
         <v>385976</v>
@@ -11991,7 +12033,7 @@
         <v>43202.558819444443</v>
       </c>
       <c r="J199" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K199" t="s">
         <v>29</v>
@@ -12029,7 +12071,7 @@
         <v>146</v>
       </c>
       <c r="C200" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E200">
         <v>331626</v>
@@ -12044,7 +12086,7 @@
         <v>43203.026435185187</v>
       </c>
       <c r="J200" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K200" t="s">
         <v>29</v>
@@ -12076,7 +12118,7 @@
         <v>146</v>
       </c>
       <c r="C201" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E201">
         <v>331662</v>
@@ -12094,7 +12136,7 @@
         <v>43203.026435185187</v>
       </c>
       <c r="J201" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K201" t="s">
         <v>29</v>
@@ -12126,7 +12168,7 @@
         <v>146</v>
       </c>
       <c r="C202" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E202">
         <v>385320</v>
@@ -12141,7 +12183,7 @@
         <v>43202.559201388889</v>
       </c>
       <c r="J202" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K202" t="s">
         <v>29</v>
@@ -12179,7 +12221,7 @@
         <v>146</v>
       </c>
       <c r="C203" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E203">
         <v>331707</v>
@@ -12197,7 +12239,7 @@
         <v>43203.026435185187</v>
       </c>
       <c r="J203" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K203" t="s">
         <v>29</v>
@@ -12229,7 +12271,7 @@
         <v>146</v>
       </c>
       <c r="C204" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E204">
         <v>385451</v>
@@ -12244,7 +12286,7 @@
         <v>43202.559212962966</v>
       </c>
       <c r="J204" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K204" t="s">
         <v>29</v>
@@ -12282,7 +12324,7 @@
         <v>146</v>
       </c>
       <c r="C205" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E205">
         <v>331644</v>
@@ -12300,7 +12342,7 @@
         <v>43203.026435185187</v>
       </c>
       <c r="J205" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K205" t="s">
         <v>29</v>
@@ -12332,7 +12374,7 @@
         <v>146</v>
       </c>
       <c r="C206" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E206">
         <v>384977</v>
@@ -12347,7 +12389,7 @@
         <v>43202.559201388889</v>
       </c>
       <c r="J206" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K206" t="s">
         <v>29</v>
@@ -12385,7 +12427,7 @@
         <v>146</v>
       </c>
       <c r="C207" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E207">
         <v>331723</v>
@@ -12403,7 +12445,7 @@
         <v>43203.026435185187</v>
       </c>
       <c r="J207" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K207" t="s">
         <v>29</v>
@@ -12435,7 +12477,7 @@
         <v>146</v>
       </c>
       <c r="C208" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E208">
         <v>381951</v>
@@ -12488,7 +12530,7 @@
         <v>146</v>
       </c>
       <c r="C209" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E209">
         <v>331703</v>
@@ -12506,7 +12548,7 @@
         <v>43203.026435185187</v>
       </c>
       <c r="J209" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K209" t="s">
         <v>29</v>
@@ -12538,7 +12580,7 @@
         <v>146</v>
       </c>
       <c r="C210" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E210">
         <v>384847</v>
@@ -12553,7 +12595,7 @@
         <v>43202.558668981481</v>
       </c>
       <c r="J210" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K210" t="s">
         <v>29</v>
@@ -12591,7 +12633,7 @@
         <v>146</v>
       </c>
       <c r="C211" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E211">
         <v>331680</v>
@@ -12609,7 +12651,7 @@
         <v>43203.026446759257</v>
       </c>
       <c r="J211" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K211" t="s">
         <v>29</v>
@@ -12641,7 +12683,7 @@
         <v>146</v>
       </c>
       <c r="C212" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E212">
         <v>385999</v>
@@ -12656,7 +12698,7 @@
         <v>43202.559212962966</v>
       </c>
       <c r="J212" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K212" t="s">
         <v>29</v>
@@ -12694,7 +12736,7 @@
         <v>146</v>
       </c>
       <c r="C213" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E213">
         <v>331706</v>
@@ -12709,7 +12751,7 @@
         <v>43203.026446759257</v>
       </c>
       <c r="J213" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K213" t="s">
         <v>29</v>
@@ -12741,7 +12783,7 @@
         <v>146</v>
       </c>
       <c r="C214" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E214">
         <v>331721</v>
@@ -12759,7 +12801,7 @@
         <v>43203.026446759257</v>
       </c>
       <c r="J214" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K214" t="s">
         <v>29</v>
@@ -12791,7 +12833,7 @@
         <v>146</v>
       </c>
       <c r="C215" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E215">
         <v>385260</v>
@@ -12844,7 +12886,7 @@
         <v>146</v>
       </c>
       <c r="C216" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E216">
         <v>331688</v>
@@ -12862,7 +12904,7 @@
         <v>43203.026446759257</v>
       </c>
       <c r="J216" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K216" t="s">
         <v>29</v>
@@ -12894,7 +12936,7 @@
         <v>146</v>
       </c>
       <c r="C217" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E217">
         <v>381808</v>
@@ -12947,7 +12989,7 @@
         <v>146</v>
       </c>
       <c r="C218" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E218">
         <v>331692</v>
@@ -12962,7 +13004,7 @@
         <v>43203.026446759257</v>
       </c>
       <c r="J218" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K218" t="s">
         <v>29</v>
@@ -12994,7 +13036,7 @@
         <v>146</v>
       </c>
       <c r="C219" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E219">
         <v>331717</v>
@@ -13009,7 +13051,7 @@
         <v>43203.026446759257</v>
       </c>
       <c r="J219" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K219" t="s">
         <v>29</v>
@@ -13041,7 +13083,7 @@
         <v>146</v>
       </c>
       <c r="C220" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E220">
         <v>331726</v>
@@ -13056,7 +13098,7 @@
         <v>43203.026446759257</v>
       </c>
       <c r="J220" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K220" t="s">
         <v>29</v>
@@ -13088,7 +13130,7 @@
         <v>146</v>
       </c>
       <c r="C221" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E221">
         <v>331725</v>
@@ -13103,7 +13145,7 @@
         <v>43203.026446759257</v>
       </c>
       <c r="J221" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K221" t="s">
         <v>29</v>
@@ -13135,7 +13177,7 @@
         <v>146</v>
       </c>
       <c r="C222" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E222">
         <v>331747</v>
@@ -13150,7 +13192,7 @@
         <v>43203.026446759257</v>
       </c>
       <c r="J222" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K222" t="s">
         <v>29</v>
@@ -13182,7 +13224,7 @@
         <v>146</v>
       </c>
       <c r="C223" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E223">
         <v>331731</v>
@@ -13197,7 +13239,7 @@
         <v>43203.026458333334</v>
       </c>
       <c r="J223" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K223" t="s">
         <v>29</v>
@@ -13229,7 +13271,7 @@
         <v>146</v>
       </c>
       <c r="C224" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E224">
         <v>331750</v>
@@ -13247,7 +13289,7 @@
         <v>43203.026458333334</v>
       </c>
       <c r="J224" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K224" t="s">
         <v>29</v>
@@ -13279,7 +13321,7 @@
         <v>146</v>
       </c>
       <c r="C225" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E225">
         <v>385836</v>
@@ -13332,7 +13374,7 @@
         <v>146</v>
       </c>
       <c r="C226" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E226">
         <v>331743</v>
@@ -13350,7 +13392,7 @@
         <v>43203.026458333334</v>
       </c>
       <c r="J226" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K226" t="s">
         <v>29</v>
@@ -13382,7 +13424,7 @@
         <v>146</v>
       </c>
       <c r="C227" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E227">
         <v>386004</v>
@@ -13435,7 +13477,7 @@
         <v>146</v>
       </c>
       <c r="C228" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E228">
         <v>331755</v>
@@ -13453,7 +13495,7 @@
         <v>43203.026458333334</v>
       </c>
       <c r="J228" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K228" t="s">
         <v>29</v>
@@ -13485,7 +13527,7 @@
         <v>146</v>
       </c>
       <c r="C229" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E229">
         <v>385319</v>
@@ -13538,7 +13580,7 @@
         <v>146</v>
       </c>
       <c r="C230" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E230">
         <v>331812</v>
@@ -13556,7 +13598,7 @@
         <v>43203.026458333334</v>
       </c>
       <c r="J230" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K230" t="s">
         <v>29</v>
@@ -13588,7 +13630,7 @@
         <v>146</v>
       </c>
       <c r="C231" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E231">
         <v>385979</v>
@@ -13603,7 +13645,7 @@
         <v>43202.558819444443</v>
       </c>
       <c r="J231" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K231" t="s">
         <v>29</v>
@@ -13641,7 +13683,7 @@
         <v>146</v>
       </c>
       <c r="C232" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E232">
         <v>331754</v>
@@ -13659,7 +13701,7 @@
         <v>43203.026458333334</v>
       </c>
       <c r="J232" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K232" t="s">
         <v>29</v>
@@ -13691,7 +13733,7 @@
         <v>146</v>
       </c>
       <c r="C233" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E233">
         <v>385333</v>
@@ -13706,7 +13748,7 @@
         <v>43202.558715277781</v>
       </c>
       <c r="J233" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K233" t="s">
         <v>29</v>
@@ -13744,7 +13786,7 @@
         <v>146</v>
       </c>
       <c r="C234" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E234">
         <v>331787</v>
@@ -13759,7 +13801,7 @@
         <v>43203.026458333334</v>
       </c>
       <c r="J234" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K234" t="s">
         <v>29</v>
@@ -13791,7 +13833,7 @@
         <v>146</v>
       </c>
       <c r="C235" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E235">
         <v>331859</v>
@@ -13809,7 +13851,7 @@
         <v>43203.026458333334</v>
       </c>
       <c r="J235" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K235" t="s">
         <v>29</v>
@@ -13841,7 +13883,7 @@
         <v>146</v>
       </c>
       <c r="C236" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E236">
         <v>385458</v>
@@ -13856,7 +13898,7 @@
         <v>43202.55872685185</v>
       </c>
       <c r="J236" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K236" t="s">
         <v>29</v>
@@ -13894,7 +13936,7 @@
         <v>146</v>
       </c>
       <c r="C237" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E237">
         <v>331834</v>
@@ -13912,7 +13954,7 @@
         <v>43203.026458333334</v>
       </c>
       <c r="J237" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K237" t="s">
         <v>29</v>
@@ -13944,7 +13986,7 @@
         <v>146</v>
       </c>
       <c r="C238" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E238">
         <v>384983</v>
@@ -13997,7 +14039,7 @@
         <v>146</v>
       </c>
       <c r="C239" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E239">
         <v>331841</v>
@@ -14015,7 +14057,7 @@
         <v>43203.026458333334</v>
       </c>
       <c r="J239" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K239" t="s">
         <v>29</v>
@@ -14047,7 +14089,7 @@
         <v>146</v>
       </c>
       <c r="C240" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E240">
         <v>381965</v>
@@ -14100,7 +14142,7 @@
         <v>146</v>
       </c>
       <c r="C241" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E241">
         <v>331799</v>
@@ -14118,7 +14160,7 @@
         <v>43203.026469907411</v>
       </c>
       <c r="J241" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K241" t="s">
         <v>29</v>
@@ -14150,7 +14192,7 @@
         <v>146</v>
       </c>
       <c r="C242" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E242">
         <v>384858</v>
@@ -14165,7 +14207,7 @@
         <v>43202.558668981481</v>
       </c>
       <c r="J242" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K242" t="s">
         <v>29</v>
@@ -14203,7 +14245,7 @@
         <v>146</v>
       </c>
       <c r="C243" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E243">
         <v>331801</v>
@@ -14221,7 +14263,7 @@
         <v>43203.026469907411</v>
       </c>
       <c r="J243" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K243" t="s">
         <v>29</v>
@@ -14253,7 +14295,7 @@
         <v>146</v>
       </c>
       <c r="C244" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E244">
         <v>386001</v>
@@ -14306,7 +14348,7 @@
         <v>146</v>
       </c>
       <c r="C245" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E245">
         <v>331856</v>
@@ -14324,7 +14366,7 @@
         <v>43203.026469907411</v>
       </c>
       <c r="J245" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K245" t="s">
         <v>29</v>
@@ -14356,7 +14398,7 @@
         <v>146</v>
       </c>
       <c r="C246" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E246">
         <v>385269</v>
@@ -14409,7 +14451,7 @@
         <v>146</v>
       </c>
       <c r="C247" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E247">
         <v>331911</v>
@@ -14427,7 +14469,7 @@
         <v>43203.026469907411</v>
       </c>
       <c r="J247" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K247" t="s">
         <v>29</v>
@@ -14459,7 +14501,7 @@
         <v>146</v>
       </c>
       <c r="C248" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E248">
         <v>381819</v>
@@ -14474,7 +14516,7 @@
         <v>43202.559224537035</v>
       </c>
       <c r="J248" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K248" t="s">
         <v>29</v>
@@ -14512,7 +14554,7 @@
         <v>146</v>
       </c>
       <c r="C249" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E249">
         <v>331892</v>
@@ -14530,7 +14572,7 @@
         <v>43203.026469907411</v>
       </c>
       <c r="J249" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K249" t="s">
         <v>29</v>
@@ -14562,7 +14604,7 @@
         <v>146</v>
       </c>
       <c r="C250" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E250">
         <v>385839</v>
@@ -14577,7 +14619,7 @@
         <v>43202.559212962966</v>
       </c>
       <c r="J250" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K250" t="s">
         <v>29</v>
@@ -14615,7 +14657,7 @@
         <v>146</v>
       </c>
       <c r="C251" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E251">
         <v>331916</v>
@@ -14633,7 +14675,7 @@
         <v>43203.026469907411</v>
       </c>
       <c r="J251" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K251" t="s">
         <v>29</v>
@@ -14665,7 +14707,7 @@
         <v>146</v>
       </c>
       <c r="C252" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E252">
         <v>386005</v>
@@ -14680,7 +14722,7 @@
         <v>43202.559212962966</v>
       </c>
       <c r="J252" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K252" t="s">
         <v>29</v>
@@ -14718,7 +14760,7 @@
         <v>146</v>
       </c>
       <c r="C253" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E253">
         <v>331904</v>
@@ -14736,7 +14778,7 @@
         <v>43203.026469907411</v>
       </c>
       <c r="J253" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K253" t="s">
         <v>29</v>
@@ -14768,7 +14810,7 @@
         <v>146</v>
       </c>
       <c r="C254" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E254">
         <v>385322</v>
@@ -14783,7 +14825,7 @@
         <v>43202.559224537035</v>
       </c>
       <c r="J254" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K254" t="s">
         <v>29</v>
@@ -14821,7 +14863,7 @@
         <v>146</v>
       </c>
       <c r="C255" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E255">
         <v>331868</v>
@@ -14839,7 +14881,7 @@
         <v>43203.026469907411</v>
       </c>
       <c r="J255" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K255" t="s">
         <v>29</v>
@@ -14871,7 +14913,7 @@
         <v>146</v>
       </c>
       <c r="C256" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E256">
         <v>385981</v>
@@ -14886,7 +14928,7 @@
         <v>43202.558819444443</v>
       </c>
       <c r="J256" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K256" t="s">
         <v>29</v>
@@ -14924,7 +14966,7 @@
         <v>146</v>
       </c>
       <c r="C257" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E257">
         <v>331881</v>
@@ -14942,7 +14984,7 @@
         <v>43203.026469907411</v>
       </c>
       <c r="J257" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K257" t="s">
         <v>29</v>
@@ -14974,7 +15016,7 @@
         <v>146</v>
       </c>
       <c r="C258" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E258">
         <v>385340</v>
@@ -14989,7 +15031,7 @@
         <v>43202.558715277781</v>
       </c>
       <c r="J258" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K258" t="s">
         <v>29</v>
@@ -15027,7 +15069,7 @@
         <v>146</v>
       </c>
       <c r="C259" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E259">
         <v>331883</v>
@@ -15045,7 +15087,7 @@
         <v>43203.026469907411</v>
       </c>
       <c r="J259" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K259" t="s">
         <v>29</v>
@@ -15077,7 +15119,7 @@
         <v>146</v>
       </c>
       <c r="C260" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E260">
         <v>385463</v>
@@ -15092,7 +15134,7 @@
         <v>43202.559236111112</v>
       </c>
       <c r="J260" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K260" t="s">
         <v>29</v>
@@ -15130,7 +15172,7 @@
         <v>146</v>
       </c>
       <c r="C261" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E261">
         <v>331860</v>
@@ -15148,7 +15190,7 @@
         <v>43203.02648148148</v>
       </c>
       <c r="J261" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K261" t="s">
         <v>29</v>
@@ -15180,7 +15222,7 @@
         <v>146</v>
       </c>
       <c r="C262" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E262">
         <v>384989</v>
@@ -15233,7 +15275,7 @@
         <v>146</v>
       </c>
       <c r="C263" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E263">
         <v>331880</v>
@@ -15251,7 +15293,7 @@
         <v>43203.02648148148</v>
       </c>
       <c r="J263" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K263" t="s">
         <v>29</v>
@@ -15283,7 +15325,7 @@
         <v>146</v>
       </c>
       <c r="C264" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E264">
         <v>381974</v>
@@ -15336,7 +15378,7 @@
         <v>146</v>
       </c>
       <c r="C265" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E265">
         <v>331882</v>
@@ -15354,7 +15396,7 @@
         <v>43203.02648148148</v>
       </c>
       <c r="J265" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K265" t="s">
         <v>29</v>
@@ -15386,7 +15428,7 @@
         <v>146</v>
       </c>
       <c r="C266" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E266">
         <v>384876</v>
@@ -15401,7 +15443,7 @@
         <v>43202.558668981481</v>
       </c>
       <c r="J266" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K266" t="s">
         <v>29</v>
@@ -15439,7 +15481,7 @@
         <v>146</v>
       </c>
       <c r="C267" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E267">
         <v>331897</v>
@@ -15457,7 +15499,7 @@
         <v>43203.02648148148</v>
       </c>
       <c r="J267" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K267" t="s">
         <v>29</v>
@@ -15489,7 +15531,7 @@
         <v>146</v>
       </c>
       <c r="C268" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E268">
         <v>386003</v>
@@ -15542,7 +15584,7 @@
         <v>146</v>
       </c>
       <c r="C269" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E269">
         <v>331894</v>
@@ -15560,7 +15602,7 @@
         <v>43203.02648148148</v>
       </c>
       <c r="J269" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K269" t="s">
         <v>29</v>
@@ -15592,7 +15634,7 @@
         <v>146</v>
       </c>
       <c r="C270" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E270">
         <v>385282</v>
@@ -15645,7 +15687,7 @@
         <v>146</v>
       </c>
       <c r="C271" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E271">
         <v>331921</v>
@@ -15660,7 +15702,7 @@
         <v>43203.02648148148</v>
       </c>
       <c r="J271" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K271" t="s">
         <v>29</v>
@@ -15692,7 +15734,7 @@
         <v>146</v>
       </c>
       <c r="C272" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E272">
         <v>331933</v>
@@ -15707,7 +15749,7 @@
         <v>43203.02648148148</v>
       </c>
       <c r="J272" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K272" t="s">
         <v>29</v>
@@ -15739,7 +15781,7 @@
         <v>146</v>
       </c>
       <c r="C273" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E273">
         <v>331923</v>
@@ -15754,7 +15796,7 @@
         <v>43203.02648148148</v>
       </c>
       <c r="J273" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K273" t="s">
         <v>29</v>
@@ -15786,7 +15828,7 @@
         <v>146</v>
       </c>
       <c r="C274" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E274">
         <v>331927</v>
@@ -15804,7 +15846,7 @@
         <v>43203.026493055557</v>
       </c>
       <c r="J274" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K274" t="s">
         <v>29</v>
@@ -15836,7 +15878,7 @@
         <v>146</v>
       </c>
       <c r="C275" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E275">
         <v>381833</v>
@@ -15889,7 +15931,7 @@
         <v>146</v>
       </c>
       <c r="C276" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E276">
         <v>331934</v>
@@ -15907,7 +15949,7 @@
         <v>43203.026493055557</v>
       </c>
       <c r="J276" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K276" t="s">
         <v>29</v>
@@ -15939,7 +15981,7 @@
         <v>146</v>
       </c>
       <c r="C277" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E277">
         <v>385841</v>
@@ -15992,7 +16034,7 @@
         <v>146</v>
       </c>
       <c r="C278" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E278">
         <v>331943</v>
@@ -16010,7 +16052,7 @@
         <v>43203.026493055557</v>
       </c>
       <c r="J278" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K278" t="s">
         <v>29</v>
@@ -16042,7 +16084,7 @@
         <v>146</v>
       </c>
       <c r="C279" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E279">
         <v>386007</v>
@@ -16057,7 +16099,7 @@
         <v>43202.559247685182</v>
       </c>
       <c r="J279" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K279" t="s">
         <v>29</v>
@@ -16095,7 +16137,7 @@
         <v>146</v>
       </c>
       <c r="C280" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E280">
         <v>331939</v>
@@ -16113,7 +16155,7 @@
         <v>43203.026493055557</v>
       </c>
       <c r="J280" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K280" t="s">
         <v>29</v>
@@ -16145,7 +16187,7 @@
         <v>146</v>
       </c>
       <c r="C281" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E281">
         <v>385326</v>
@@ -16198,7 +16240,7 @@
         <v>146</v>
       </c>
       <c r="C282" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E282">
         <v>331940</v>
@@ -16216,7 +16258,7 @@
         <v>43203.026493055557</v>
       </c>
       <c r="J282" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K282" t="s">
         <v>29</v>
@@ -16248,7 +16290,7 @@
         <v>146</v>
       </c>
       <c r="C283" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E283">
         <v>385984</v>
@@ -16263,7 +16305,7 @@
         <v>43202.558819444443</v>
       </c>
       <c r="J283" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K283" t="s">
         <v>29</v>
@@ -16301,7 +16343,7 @@
         <v>146</v>
       </c>
       <c r="C284" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E284">
         <v>331952</v>
@@ -16319,7 +16361,7 @@
         <v>43203.026493055557</v>
       </c>
       <c r="J284" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K284" t="s">
         <v>29</v>
@@ -16351,7 +16393,7 @@
         <v>146</v>
       </c>
       <c r="C285" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E285">
         <v>385345</v>
@@ -16366,7 +16408,7 @@
         <v>43202.558715277781</v>
       </c>
       <c r="J285" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K285" t="s">
         <v>29</v>
@@ -16404,7 +16446,7 @@
         <v>146</v>
       </c>
       <c r="C286" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E286">
         <v>331953</v>
@@ -16422,7 +16464,7 @@
         <v>43203.026493055557</v>
       </c>
       <c r="J286" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K286" t="s">
         <v>29</v>
@@ -16454,7 +16496,7 @@
         <v>146</v>
       </c>
       <c r="C287" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E287">
         <v>385466</v>
@@ -16469,7 +16511,7 @@
         <v>43202.55872685185</v>
       </c>
       <c r="J287" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K287" t="s">
         <v>29</v>
@@ -16507,7 +16549,7 @@
         <v>146</v>
       </c>
       <c r="C288" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E288">
         <v>331967</v>
@@ -16525,7 +16567,7 @@
         <v>43203.026493055557</v>
       </c>
       <c r="J288" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K288" t="s">
         <v>29</v>
@@ -16557,7 +16599,7 @@
         <v>146</v>
       </c>
       <c r="C289" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E289">
         <v>384998</v>
@@ -16610,7 +16652,7 @@
         <v>146</v>
       </c>
       <c r="C290" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E290">
         <v>331955</v>
@@ -16628,7 +16670,7 @@
         <v>43203.026504629626</v>
       </c>
       <c r="J290" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K290" t="s">
         <v>29</v>
@@ -16660,7 +16702,7 @@
         <v>146</v>
       </c>
       <c r="C291" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E291">
         <v>381986</v>
@@ -16713,7 +16755,7 @@
         <v>146</v>
       </c>
       <c r="C292" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E292">
         <v>331974</v>
@@ -16731,7 +16773,7 @@
         <v>43203.026504629626</v>
       </c>
       <c r="J292" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K292" t="s">
         <v>29</v>
@@ -16763,7 +16805,7 @@
         <v>146</v>
       </c>
       <c r="C293" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E293">
         <v>384899</v>
@@ -16778,7 +16820,7 @@
         <v>43202.558668981481</v>
       </c>
       <c r="J293" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K293" t="s">
         <v>29</v>
@@ -16816,7 +16858,7 @@
         <v>146</v>
       </c>
       <c r="C294" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E294">
         <v>331954</v>
@@ -16834,7 +16876,7 @@
         <v>43203.026504629626</v>
       </c>
       <c r="J294" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K294" t="s">
         <v>29</v>
@@ -16866,7 +16908,7 @@
         <v>146</v>
       </c>
       <c r="C295" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E295">
         <v>386006</v>
@@ -16919,7 +16961,7 @@
         <v>146</v>
       </c>
       <c r="C296" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E296">
         <v>331959</v>
@@ -16937,7 +16979,7 @@
         <v>43203.026504629626</v>
       </c>
       <c r="J296" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K296" t="s">
         <v>29</v>
@@ -16969,7 +17011,7 @@
         <v>146</v>
       </c>
       <c r="C297" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E297">
         <v>385289</v>
@@ -17022,7 +17064,7 @@
         <v>146</v>
       </c>
       <c r="C298" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E298">
         <v>331966</v>
@@ -17040,7 +17082,7 @@
         <v>43203.026504629626</v>
       </c>
       <c r="J298" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K298" t="s">
         <v>29</v>
@@ -17072,7 +17114,7 @@
         <v>146</v>
       </c>
       <c r="C299" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E299">
         <v>381842</v>
@@ -17087,7 +17129,7 @@
         <v>43202.559212962966</v>
       </c>
       <c r="J299" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K299" t="s">
         <v>29</v>
@@ -17125,7 +17167,7 @@
         <v>146</v>
       </c>
       <c r="C300" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E300">
         <v>331958</v>
@@ -17143,7 +17185,7 @@
         <v>43203.026504629626</v>
       </c>
       <c r="J300" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K300" t="s">
         <v>29</v>
@@ -17175,7 +17217,7 @@
         <v>146</v>
       </c>
       <c r="C301" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E301">
         <v>385847</v>
@@ -17228,7 +17270,7 @@
         <v>146</v>
       </c>
       <c r="C302" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E302">
         <v>331983</v>
@@ -17246,7 +17288,7 @@
         <v>43203.026504629626</v>
       </c>
       <c r="J302" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K302" t="s">
         <v>29</v>
@@ -17278,7 +17320,7 @@
         <v>146</v>
       </c>
       <c r="C303" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E303">
         <v>386008</v>
@@ -17331,7 +17373,7 @@
         <v>146</v>
       </c>
       <c r="C304" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E304">
         <v>331975</v>
@@ -17349,7 +17391,7 @@
         <v>43203.026504629626</v>
       </c>
       <c r="J304" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K304" t="s">
         <v>29</v>
@@ -17381,7 +17423,7 @@
         <v>146</v>
       </c>
       <c r="C305" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E305">
         <v>385330</v>
@@ -17434,7 +17476,7 @@
         <v>146</v>
       </c>
       <c r="C306" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E306">
         <v>331980</v>
@@ -17452,7 +17494,7 @@
         <v>43203.026504629626</v>
       </c>
       <c r="J306" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K306" t="s">
         <v>29</v>
@@ -17484,7 +17526,7 @@
         <v>146</v>
       </c>
       <c r="C307" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E307">
         <v>385986</v>
@@ -17537,7 +17579,7 @@
         <v>146</v>
       </c>
       <c r="C308" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E308">
         <v>331978</v>
@@ -17552,7 +17594,7 @@
         <v>43203.026516203703</v>
       </c>
       <c r="J308" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K308" t="s">
         <v>29</v>
@@ -17584,7 +17626,7 @@
         <v>146</v>
       </c>
       <c r="C309" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E309">
         <v>331988</v>
@@ -17602,7 +17644,7 @@
         <v>43203.026516203703</v>
       </c>
       <c r="J309" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K309" t="s">
         <v>29</v>
@@ -17634,7 +17676,7 @@
         <v>146</v>
       </c>
       <c r="C310" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E310">
         <v>385352</v>
@@ -17649,7 +17691,7 @@
         <v>43202.558715277781</v>
       </c>
       <c r="J310" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K310" t="s">
         <v>29</v>
@@ -17687,7 +17729,7 @@
         <v>146</v>
       </c>
       <c r="C311" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E311">
         <v>331998</v>
@@ -17705,7 +17747,7 @@
         <v>43203.026516203703</v>
       </c>
       <c r="J311" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K311" t="s">
         <v>29</v>
@@ -17737,7 +17779,7 @@
         <v>146</v>
       </c>
       <c r="C312" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E312">
         <v>385469</v>
@@ -17752,7 +17794,7 @@
         <v>43202.55872685185</v>
       </c>
       <c r="J312" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K312" t="s">
         <v>29</v>
@@ -17790,7 +17832,7 @@
         <v>146</v>
       </c>
       <c r="C313" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E313">
         <v>332005</v>
@@ -17805,7 +17847,7 @@
         <v>43203.026516203703</v>
       </c>
       <c r="J313" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K313" t="s">
         <v>29</v>
@@ -17837,7 +17879,7 @@
         <v>146</v>
       </c>
       <c r="C314" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E314">
         <v>332003</v>
@@ -17855,7 +17897,7 @@
         <v>43203.026516203703</v>
       </c>
       <c r="J314" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K314" t="s">
         <v>29</v>
@@ -17887,7 +17929,7 @@
         <v>146</v>
       </c>
       <c r="C315" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E315">
         <v>385004</v>
@@ -17940,7 +17982,7 @@
         <v>146</v>
       </c>
       <c r="C316" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E316">
         <v>331995</v>
@@ -17958,7 +18000,7 @@
         <v>43203.026516203703</v>
       </c>
       <c r="J316" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K316" t="s">
         <v>29</v>
@@ -17990,7 +18032,7 @@
         <v>146</v>
       </c>
       <c r="C317" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E317">
         <v>381995</v>
@@ -18043,7 +18085,7 @@
         <v>146</v>
       </c>
       <c r="C318" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E318">
         <v>332011</v>
@@ -18058,7 +18100,7 @@
         <v>43203.026516203703</v>
       </c>
       <c r="J318" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K318" t="s">
         <v>29</v>
@@ -18090,7 +18132,7 @@
         <v>146</v>
       </c>
       <c r="C319" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E319">
         <v>332018</v>
@@ -18108,7 +18150,7 @@
         <v>43203.026516203703</v>
       </c>
       <c r="J319" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K319" t="s">
         <v>29</v>
@@ -18140,7 +18182,7 @@
         <v>146</v>
       </c>
       <c r="C320" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E320">
         <v>384917</v>
@@ -18193,7 +18235,7 @@
         <v>146</v>
       </c>
       <c r="C321" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E321">
         <v>332014</v>
@@ -18208,7 +18250,7 @@
         <v>43203.02652777778</v>
       </c>
       <c r="J321" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K321" t="s">
         <v>29</v>
@@ -18240,7 +18282,7 @@
         <v>146</v>
       </c>
       <c r="C322" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E322">
         <v>332019</v>
@@ -18258,7 +18300,7 @@
         <v>43203.02652777778</v>
       </c>
       <c r="J322" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K322" t="s">
         <v>29</v>
@@ -18290,7 +18332,7 @@
         <v>146</v>
       </c>
       <c r="C323" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E323">
         <v>386009</v>
@@ -18343,7 +18385,7 @@
         <v>146</v>
       </c>
       <c r="C324" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E324">
         <v>332027</v>
@@ -18358,7 +18400,7 @@
         <v>43203.02652777778</v>
       </c>
       <c r="J324" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K324" t="s">
         <v>29</v>
@@ -18390,7 +18432,7 @@
         <v>146</v>
       </c>
       <c r="C325" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E325">
         <v>332032</v>
@@ -18405,7 +18447,7 @@
         <v>43203.02652777778</v>
       </c>
       <c r="J325" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K325" t="s">
         <v>29</v>
@@ -18437,7 +18479,7 @@
         <v>146</v>
       </c>
       <c r="C326" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E326">
         <v>332020</v>
@@ -18455,7 +18497,7 @@
         <v>43203.02652777778</v>
       </c>
       <c r="J326" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K326" t="s">
         <v>29</v>
@@ -18487,7 +18529,7 @@
         <v>146</v>
       </c>
       <c r="C327" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E327">
         <v>385295</v>
@@ -18540,7 +18582,7 @@
         <v>146</v>
       </c>
       <c r="C328" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E328">
         <v>332031</v>
@@ -18555,7 +18597,7 @@
         <v>43203.02652777778</v>
       </c>
       <c r="J328" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K328" t="s">
         <v>29</v>
@@ -18587,7 +18629,7 @@
         <v>146</v>
       </c>
       <c r="C329" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E329">
         <v>332015</v>
@@ -18602,7 +18644,7 @@
         <v>43203.02652777778</v>
       </c>
       <c r="J329" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K329" t="s">
         <v>29</v>
@@ -18634,7 +18676,7 @@
         <v>146</v>
       </c>
       <c r="C330" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E330">
         <v>332010</v>
@@ -18652,7 +18694,7 @@
         <v>43203.026539351849</v>
       </c>
       <c r="J330" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K330" t="s">
         <v>29</v>
@@ -18684,7 +18726,7 @@
         <v>146</v>
       </c>
       <c r="C331" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E331">
         <v>381852</v>
@@ -18737,7 +18779,7 @@
         <v>146</v>
       </c>
       <c r="C332" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E332">
         <v>332022</v>
@@ -18752,7 +18794,7 @@
         <v>43203.026539351849</v>
       </c>
       <c r="J332" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K332" t="s">
         <v>29</v>
@@ -18784,7 +18826,7 @@
         <v>146</v>
       </c>
       <c r="C333" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E333">
         <v>332023</v>
@@ -18799,7 +18841,7 @@
         <v>43203.026539351849</v>
       </c>
       <c r="J333" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K333" t="s">
         <v>29</v>
@@ -18824,12 +18866,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18841,10 +18884,11 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>